--- a/config_6.29/fish_3d_yutu_random_4.xlsx
+++ b/config_6.29/fish_3d_yutu_random_4.xlsx
@@ -302,9 +302,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -343,7 +343,134 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,133 +486,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,7 +512,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -524,7 +530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,7 +542,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,49 +590,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -608,19 +632,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -632,13 +668,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,49 +680,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,24 +721,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -750,6 +732,56 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,55 +812,23 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -837,138 +837,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1621,8 +1621,8 @@
   <sheetPr/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2035,10 +2035,10 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="I18" s="9">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="J18" s="9">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="19" customFormat="1" spans="1:10">
@@ -2063,10 +2063,10 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="I19" s="9">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="J19" s="9">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="20" customFormat="1" spans="1:10">
@@ -2091,10 +2091,10 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="9">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="J20" s="9">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="21" customFormat="1" spans="1:10">
@@ -2119,10 +2119,10 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="9">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="J21" s="9">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:10">
@@ -2435,10 +2435,10 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="9">
-        <v>1624320000</v>
+        <v>1624924800</v>
       </c>
       <c r="J33" s="9">
-        <v>1624895999</v>
+        <v>1625500799</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="1" ht="16.5" spans="3:10">
